--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N2">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O2">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P2">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q2">
-        <v>0.08014480486483334</v>
+        <v>0.08279365789566667</v>
       </c>
       <c r="R2">
-        <v>0.480868829189</v>
+        <v>0.496761947374</v>
       </c>
       <c r="S2">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="T2">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O3">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P3">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q3">
         <v>0.2126662565867778</v>
@@ -641,10 +641,10 @@
         <v>1.913996309281</v>
       </c>
       <c r="S3">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="T3">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N4">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O4">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P4">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q4">
-        <v>0.01296427402744444</v>
+        <v>0.01130106567488889</v>
       </c>
       <c r="R4">
-        <v>0.116678466247</v>
+        <v>0.101709591074</v>
       </c>
       <c r="S4">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="T4">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N5">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O5">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P5">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q5">
-        <v>0.2456090226333334</v>
+        <v>0.1812202696115</v>
       </c>
       <c r="R5">
-        <v>1.4736541358</v>
+        <v>1.087321617669</v>
       </c>
       <c r="S5">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="T5">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N6">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O6">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P6">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q6">
-        <v>0.06070803608955556</v>
+        <v>0.01900905530611111</v>
       </c>
       <c r="R6">
-        <v>0.546372324806</v>
+        <v>0.171081497755</v>
       </c>
       <c r="S6">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="T6">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N7">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O7">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P7">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q7">
-        <v>0.017715718615</v>
+        <v>0.01156400012833333</v>
       </c>
       <c r="R7">
-        <v>0.159441467535</v>
+        <v>0.104076001155</v>
       </c>
       <c r="S7">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="T7">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
     </row>
   </sheetData>
